--- a/Code/Results/Cases/Case_4_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.142081103032183</v>
+        <v>0.9423993556369226</v>
       </c>
       <c r="C2">
-        <v>0.08637760848618115</v>
+        <v>0.0698908199847601</v>
       </c>
       <c r="D2">
-        <v>0.1896183226625539</v>
+        <v>0.07693026849750595</v>
       </c>
       <c r="E2">
-        <v>0.07251823328515528</v>
+        <v>0.09638725095160083</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.270708689043545</v>
+        <v>2.813795971865773</v>
       </c>
       <c r="H2">
-        <v>1.873788473025286</v>
+        <v>2.144975901200553</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8771077427032594</v>
+        <v>0.5032953942100278</v>
       </c>
       <c r="L2">
-        <v>0.2442881018408087</v>
+        <v>0.2118762749613836</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9956518910709349</v>
+        <v>0.9140284257348412</v>
       </c>
       <c r="C3">
-        <v>0.08162203167828608</v>
+        <v>0.06812135611863823</v>
       </c>
       <c r="D3">
-        <v>0.1639506821242378</v>
+        <v>0.07001362871633887</v>
       </c>
       <c r="E3">
-        <v>0.06694354298735661</v>
+        <v>0.09528090821886082</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.99532559325317</v>
+        <v>2.737642155308947</v>
       </c>
       <c r="H3">
-        <v>1.74891044923973</v>
+        <v>2.112649597458642</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7563669418429129</v>
+        <v>0.4780125753428024</v>
       </c>
       <c r="L3">
-        <v>0.2156031574914863</v>
+        <v>0.205756322730636</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9075318061039184</v>
+        <v>0.8973565204716749</v>
       </c>
       <c r="C4">
-        <v>0.07869951948513787</v>
+        <v>0.06700015309624163</v>
       </c>
       <c r="D4">
-        <v>0.1484307428588068</v>
+        <v>0.06580612646935435</v>
       </c>
       <c r="E4">
-        <v>0.06361183604532528</v>
+        <v>0.094638173090555</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.829876546007398</v>
+        <v>2.691600719588251</v>
       </c>
       <c r="H4">
-        <v>1.674150308989027</v>
+        <v>2.0933036386391</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6835158494312026</v>
+        <v>0.4629546324703</v>
       </c>
       <c r="L4">
-        <v>0.1983639060862146</v>
+        <v>0.202132386448568</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8720234371063782</v>
+        <v>0.8907504930698167</v>
       </c>
       <c r="C5">
-        <v>0.07750605171189306</v>
+        <v>0.06653444758534732</v>
       </c>
       <c r="D5">
-        <v>0.1421587081426878</v>
+        <v>0.06410133258202677</v>
       </c>
       <c r="E5">
-        <v>0.06227518520514153</v>
+        <v>0.09438544283780104</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.763274529021373</v>
+        <v>2.6730176061007</v>
       </c>
       <c r="H5">
-        <v>1.644122033257759</v>
+        <v>2.085545894753864</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6541111265644588</v>
+        <v>0.4569352466074719</v>
       </c>
       <c r="L5">
-        <v>0.1914230596735536</v>
+        <v>0.2006891732766007</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8661501916366205</v>
+        <v>0.8896649117655215</v>
       </c>
       <c r="C6">
-        <v>0.07730767320802912</v>
+        <v>0.06645658364534412</v>
       </c>
       <c r="D6">
-        <v>0.1411201901312893</v>
+        <v>0.06381884182827946</v>
       </c>
       <c r="E6">
-        <v>0.06205445410374466</v>
+        <v>0.09434403206698505</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.752262187487105</v>
+        <v>2.669942678449956</v>
       </c>
       <c r="H6">
-        <v>1.639161018061657</v>
+        <v>2.084265317124505</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6492444499198911</v>
+        <v>0.4559427814169652</v>
       </c>
       <c r="L6">
-        <v>0.1902753606621133</v>
+        <v>0.200451554694709</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9070513642907088</v>
+        <v>0.8972666686598245</v>
       </c>
       <c r="C7">
-        <v>0.07868343653095167</v>
+        <v>0.06699390817516715</v>
       </c>
       <c r="D7">
-        <v>0.1483459536032683</v>
+        <v>0.06578309547759886</v>
       </c>
       <c r="E7">
-        <v>0.06359372667404628</v>
+        <v>0.09463472747956558</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.828975128847588</v>
+        <v>2.691349377499506</v>
       </c>
       <c r="H7">
-        <v>1.673743623967169</v>
+        <v>2.093198505905349</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6831181934229704</v>
+        <v>0.4628729801839881</v>
       </c>
       <c r="L7">
-        <v>0.1982699703109319</v>
+        <v>0.2021127869221999</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.091190901625254</v>
+        <v>0.9324617012824774</v>
       </c>
       <c r="C8">
-        <v>0.08473723959063406</v>
+        <v>0.06928787821234295</v>
       </c>
       <c r="D8">
-        <v>0.1807133375967425</v>
+        <v>0.07453718562732092</v>
       </c>
       <c r="E8">
-        <v>0.07057598048113789</v>
+        <v>0.09599819171637236</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.174942338035407</v>
+        <v>2.787388490515269</v>
       </c>
       <c r="H8">
-        <v>1.83030507616769</v>
+        <v>2.133725196366953</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8351845288094637</v>
+        <v>0.4944810165004583</v>
       </c>
       <c r="L8">
-        <v>0.234314009827159</v>
+        <v>0.2097383191214561</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.468875777837326</v>
+        <v>1.007427353539441</v>
       </c>
       <c r="C9">
-        <v>0.09668213547006843</v>
+        <v>0.07351387577449486</v>
       </c>
       <c r="D9">
-        <v>0.2464822662309132</v>
+        <v>0.09202134559599529</v>
       </c>
       <c r="E9">
-        <v>0.08508451486071777</v>
+        <v>0.09896251183224081</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.886933536340706</v>
+        <v>2.981478650703508</v>
       </c>
       <c r="H9">
-        <v>2.154725243326169</v>
+        <v>2.217211627101619</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.145576721677031</v>
+        <v>0.5601776239616925</v>
       </c>
       <c r="L9">
-        <v>0.3084355049419685</v>
+        <v>0.2257569478733501</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.760187215262732</v>
+        <v>1.066158091266431</v>
       </c>
       <c r="C10">
-        <v>0.1056494603050666</v>
+        <v>0.07645719414164631</v>
       </c>
       <c r="D10">
-        <v>0.296806542062086</v>
+        <v>0.1050690870201834</v>
       </c>
       <c r="E10">
-        <v>0.0963845817423099</v>
+        <v>0.1013185132157588</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.437715488588168</v>
+        <v>3.127693844187604</v>
       </c>
       <c r="H10">
-        <v>2.407085559889111</v>
+        <v>2.281039972787795</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.384153042541186</v>
+        <v>0.6107392781119074</v>
       </c>
       <c r="L10">
-        <v>0.3657245269694016</v>
+        <v>0.2381820158907004</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.896654494039183</v>
+        <v>1.093676111492044</v>
       </c>
       <c r="C11">
-        <v>0.1098083073995824</v>
+        <v>0.07776210814053286</v>
       </c>
       <c r="D11">
-        <v>0.3202875882872149</v>
+        <v>0.1110506846526675</v>
       </c>
       <c r="E11">
-        <v>0.1017002875770459</v>
+        <v>0.1024292319185989</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.696112727638763</v>
+        <v>3.195020427563463</v>
       </c>
       <c r="H11">
-        <v>2.525789281871823</v>
+        <v>2.310627992625655</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.495760481081106</v>
+        <v>0.6342464188481358</v>
       </c>
       <c r="L11">
-        <v>0.3925872706195435</v>
+        <v>0.2439786078550128</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.948987527265103</v>
+        <v>1.104212055211065</v>
       </c>
       <c r="C12">
-        <v>0.1113982352332457</v>
+        <v>0.07825143083416464</v>
       </c>
       <c r="D12">
-        <v>0.3292781370636817</v>
+        <v>0.1133225214715452</v>
       </c>
       <c r="E12">
-        <v>0.1037417710495845</v>
+        <v>0.1028554476097128</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.795260275888722</v>
+        <v>3.22063372076542</v>
       </c>
       <c r="H12">
-        <v>2.571381230589395</v>
+        <v>2.321912267375012</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.538540249059452</v>
+        <v>0.6432212420875771</v>
       </c>
       <c r="L12">
-        <v>0.4028922376026856</v>
+        <v>0.2461944873331987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.937685989109553</v>
+        <v>1.101937811413961</v>
       </c>
       <c r="C13">
-        <v>0.1110550830882602</v>
+        <v>0.07814625966095434</v>
       </c>
       <c r="D13">
-        <v>0.3273372243887422</v>
+        <v>0.1128329395213541</v>
       </c>
       <c r="E13">
-        <v>0.1033007744427756</v>
+        <v>0.1027634047704993</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.773846421034023</v>
+        <v>3.21511216250542</v>
       </c>
       <c r="H13">
-        <v>2.561532286382658</v>
+        <v>2.319478433323411</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.529302619853951</v>
+        <v>0.641285092803372</v>
       </c>
       <c r="L13">
-        <v>0.4006666819289961</v>
+        <v>0.2457163301240257</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.900946278567602</v>
+        <v>1.09454059422211</v>
       </c>
       <c r="C14">
-        <v>0.1099387873892042</v>
+        <v>0.07780246119965994</v>
       </c>
       <c r="D14">
-        <v>0.3210251791950327</v>
+        <v>0.1112374544410528</v>
       </c>
       <c r="E14">
-        <v>0.1018676491683372</v>
+        <v>0.1024641844479248</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.704242594663299</v>
+        <v>3.197125272495612</v>
       </c>
       <c r="H14">
-        <v>2.529526812098879</v>
+        <v>2.311554751654057</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.499269193206032</v>
+        <v>0.6349833142334376</v>
       </c>
       <c r="L14">
-        <v>0.3934323018076071</v>
+        <v>0.2441604915669302</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.87853034540683</v>
+        <v>1.090024630423926</v>
       </c>
       <c r="C15">
-        <v>0.1092571012599706</v>
+        <v>0.07759124915123294</v>
       </c>
       <c r="D15">
-        <v>0.3171721831495802</v>
+        <v>0.1102610540557265</v>
       </c>
       <c r="E15">
-        <v>0.1009936409863457</v>
+        <v>0.1022816342712538</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.661782681012653</v>
+        <v>3.186123212880318</v>
       </c>
       <c r="H15">
-        <v>2.510008601441939</v>
+        <v>2.306711693402178</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.480942452124594</v>
+        <v>0.6311328338763929</v>
       </c>
       <c r="L15">
-        <v>0.3890188564573549</v>
+        <v>0.2432102112730519</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.751355504981632</v>
+        <v>1.064375866965662</v>
       </c>
       <c r="C16">
-        <v>0.1053795698760069</v>
+        <v>0.0763712365602558</v>
       </c>
       <c r="D16">
-        <v>0.2952850150244899</v>
+        <v>0.10467911238689</v>
       </c>
       <c r="E16">
-        <v>0.09604099150326206</v>
+        <v>0.1012467098212397</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.421000569650829</v>
+        <v>3.123310358050702</v>
       </c>
       <c r="H16">
-        <v>2.399413184787335</v>
+        <v>2.279117482687354</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.376927285795915</v>
+        <v>0.6092132516726849</v>
       </c>
       <c r="L16">
-        <v>0.3639865535463258</v>
+        <v>0.2378061064615622</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.674408623823865</v>
+        <v>1.048846552133199</v>
       </c>
       <c r="C17">
-        <v>0.1030236408936673</v>
+        <v>0.07561413679336937</v>
       </c>
       <c r="D17">
-        <v>0.2820182217776193</v>
+        <v>0.101266656929127</v>
       </c>
       <c r="E17">
-        <v>0.09304984959781137</v>
+        <v>0.1006218018160432</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.275412659894016</v>
+        <v>3.084985766765925</v>
       </c>
       <c r="H17">
-        <v>2.332620489943452</v>
+        <v>2.2623311316475</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.313955542215894</v>
+        <v>0.5958962503275131</v>
       </c>
       <c r="L17">
-        <v>0.3488471092536827</v>
+        <v>0.2345278924600507</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.630516598811369</v>
+        <v>1.039989888785612</v>
       </c>
       <c r="C18">
-        <v>0.1016758192926197</v>
+        <v>0.07517546695838462</v>
       </c>
       <c r="D18">
-        <v>0.2744419458879861</v>
+        <v>0.09930823701768077</v>
       </c>
       <c r="E18">
-        <v>0.09134569852133012</v>
+        <v>0.1002660380387219</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.192401372964099</v>
+        <v>3.063018877133004</v>
       </c>
       <c r="H18">
-        <v>2.294565238091877</v>
+        <v>2.252728008794463</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.27802066036341</v>
+        <v>0.5882843050713973</v>
       </c>
       <c r="L18">
-        <v>0.340213610449382</v>
+        <v>0.2326559342260452</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.61571581705482</v>
+        <v>1.037004114724112</v>
       </c>
       <c r="C19">
-        <v>0.1012206118062551</v>
+        <v>0.07502638806859352</v>
       </c>
       <c r="D19">
-        <v>0.2718856912079275</v>
+        <v>0.09864589093093912</v>
       </c>
       <c r="E19">
-        <v>0.09077140157260288</v>
+        <v>0.1001462120723247</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.164415168937808</v>
+        <v>3.055594347356788</v>
       </c>
       <c r="H19">
-        <v>2.28174028745795</v>
+        <v>2.249485461458221</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.265900530003023</v>
+        <v>0.5857152028726773</v>
       </c>
       <c r="L19">
-        <v>0.3373027218650861</v>
+        <v>0.2320244520646781</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.68256128751753</v>
+        <v>1.05049186996618</v>
       </c>
       <c r="C20">
-        <v>0.1032736588310001</v>
+        <v>0.07569506265461001</v>
       </c>
       <c r="D20">
-        <v>0.2834247632712135</v>
+        <v>0.101629469308179</v>
       </c>
       <c r="E20">
-        <v>0.0933665543704123</v>
+        <v>0.1006879447852285</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.29083432510393</v>
+        <v>3.089057568046513</v>
       </c>
       <c r="H20">
-        <v>2.339692655044786</v>
+        <v>2.264112687753709</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.320629008637269</v>
+        <v>0.5973089345423546</v>
       </c>
       <c r="L20">
-        <v>0.3504509188319531</v>
+        <v>0.23487545752225</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.91171906915099</v>
+        <v>1.096710200296371</v>
       </c>
       <c r="C21">
-        <v>0.1102662304550748</v>
+        <v>0.07790357338139842</v>
       </c>
       <c r="D21">
-        <v>0.3228763776003092</v>
+        <v>0.1117059034436068</v>
       </c>
       <c r="E21">
-        <v>0.102287789709365</v>
+        <v>0.1025519203741148</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.724650240646667</v>
+        <v>3.202405240135988</v>
       </c>
       <c r="H21">
-        <v>2.538909503367336</v>
+        <v>2.313879955399898</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.508076089574672</v>
+        <v>0.6368323103679359</v>
       </c>
       <c r="L21">
-        <v>0.3955534668085363</v>
+        <v>0.2446169129675582</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.06535831260976</v>
+        <v>1.127589712117697</v>
       </c>
       <c r="C22">
-        <v>0.1149261179015753</v>
+        <v>0.0793189021037648</v>
       </c>
       <c r="D22">
-        <v>0.3492439000699932</v>
+        <v>0.1183307452702138</v>
       </c>
       <c r="E22">
-        <v>0.1082865235360053</v>
+        <v>0.1038028431162417</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.015834194472916</v>
+        <v>3.277173949173118</v>
       </c>
       <c r="H22">
-        <v>2.672892045883657</v>
+        <v>2.346871906931256</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.633634784056198</v>
+        <v>0.6630898404124821</v>
       </c>
       <c r="L22">
-        <v>0.4258132124267036</v>
+        <v>0.2511050016161391</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.982972026932771</v>
+        <v>1.111047049578701</v>
       </c>
       <c r="C23">
-        <v>0.112429502656795</v>
+        <v>0.07856605834651731</v>
       </c>
       <c r="D23">
-        <v>0.3351125282421634</v>
+        <v>0.1147913108684691</v>
       </c>
       <c r="E23">
-        <v>0.1050682921790127</v>
+        <v>0.103132206703382</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.859661409582088</v>
+        <v>3.237204954214008</v>
       </c>
       <c r="H23">
-        <v>2.601007968894976</v>
+        <v>2.329220650740353</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.566315780581363</v>
+        <v>0.6490365357529129</v>
       </c>
       <c r="L23">
-        <v>0.4095851332718468</v>
+        <v>0.2476310450696388</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.678874397816003</v>
+        <v>1.049747799560606</v>
       </c>
       <c r="C24">
-        <v>0.1031606053271048</v>
+        <v>0.07565848667958619</v>
       </c>
       <c r="D24">
-        <v>0.2827887081217568</v>
+        <v>0.1014654311073144</v>
       </c>
       <c r="E24">
-        <v>0.09322332412307333</v>
+        <v>0.1006580306350351</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.283860056356104</v>
+        <v>3.08721649987254</v>
       </c>
       <c r="H24">
-        <v>2.336494261294291</v>
+        <v>2.263307098077178</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.317611103893483</v>
+        <v>0.5966701224347446</v>
       </c>
       <c r="L24">
-        <v>0.3497256186221449</v>
+        <v>0.234718283710734</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.364565595026846</v>
+        <v>0.9865075811472082</v>
       </c>
       <c r="C25">
-        <v>0.09342873461853785</v>
+        <v>0.07239932861846654</v>
       </c>
       <c r="D25">
-        <v>0.2283854362037374</v>
+        <v>0.08725654825930462</v>
       </c>
       <c r="E25">
-        <v>0.08105825094270713</v>
+        <v>0.09812937740191074</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.690026142823797</v>
+        <v>2.928344677287981</v>
       </c>
       <c r="H25">
-        <v>2.06476722799448</v>
+        <v>2.194192109971027</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.06000167890258</v>
+        <v>0.5420042845127284</v>
       </c>
       <c r="L25">
-        <v>0.2879440111374265</v>
+        <v>0.2213087602360133</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9423993556369226</v>
+        <v>1.142081103032098</v>
       </c>
       <c r="C2">
-        <v>0.0698908199847601</v>
+        <v>0.08637760848569087</v>
       </c>
       <c r="D2">
-        <v>0.07693026849750595</v>
+        <v>0.1896183226625254</v>
       </c>
       <c r="E2">
-        <v>0.09638725095160083</v>
+        <v>0.07251823328514462</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.813795971865773</v>
+        <v>3.27070868904346</v>
       </c>
       <c r="H2">
-        <v>2.144975901200553</v>
+        <v>1.873788473025286</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5032953942100278</v>
+        <v>0.8771077427030605</v>
       </c>
       <c r="L2">
-        <v>0.2118762749613836</v>
+        <v>0.2442881018407803</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9140284257348412</v>
+        <v>0.9956518910709065</v>
       </c>
       <c r="C3">
-        <v>0.06812135611863823</v>
+        <v>0.08162203167876214</v>
       </c>
       <c r="D3">
-        <v>0.07001362871633887</v>
+        <v>0.1639506821241099</v>
       </c>
       <c r="E3">
-        <v>0.09528090821886082</v>
+        <v>0.06694354298735306</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.737642155308947</v>
+        <v>2.995325593253142</v>
       </c>
       <c r="H3">
-        <v>2.112649597458642</v>
+        <v>1.748910449239816</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4780125753428024</v>
+        <v>0.7563669418429697</v>
       </c>
       <c r="L3">
-        <v>0.205756322730636</v>
+        <v>0.2156031574915716</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8973565204716749</v>
+        <v>0.9075318061038899</v>
       </c>
       <c r="C4">
-        <v>0.06700015309624163</v>
+        <v>0.07869951948513787</v>
       </c>
       <c r="D4">
-        <v>0.06580612646935435</v>
+        <v>0.1484307428585652</v>
       </c>
       <c r="E4">
-        <v>0.094638173090555</v>
+        <v>0.06361183604526488</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.691600719588251</v>
+        <v>2.82987654600737</v>
       </c>
       <c r="H4">
-        <v>2.0933036386391</v>
+        <v>1.674150308988999</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4629546324703</v>
+        <v>0.6835158494312452</v>
       </c>
       <c r="L4">
-        <v>0.202132386448568</v>
+        <v>0.1983639060862572</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8907504930698167</v>
+        <v>0.8720234371062361</v>
       </c>
       <c r="C5">
-        <v>0.06653444758534732</v>
+        <v>0.07750605171165503</v>
       </c>
       <c r="D5">
-        <v>0.06410133258202677</v>
+        <v>0.1421587081426878</v>
       </c>
       <c r="E5">
-        <v>0.09438544283780104</v>
+        <v>0.06227518520516639</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.6730176061007</v>
+        <v>2.76327452902143</v>
       </c>
       <c r="H5">
-        <v>2.085545894753864</v>
+        <v>1.644122033257673</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4569352466074719</v>
+        <v>0.654111126564473</v>
       </c>
       <c r="L5">
-        <v>0.2006891732766007</v>
+        <v>0.191423059673582</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8896649117655215</v>
+        <v>0.8661501916365637</v>
       </c>
       <c r="C6">
-        <v>0.06645658364534412</v>
+        <v>0.07730767320803622</v>
       </c>
       <c r="D6">
-        <v>0.06381884182827946</v>
+        <v>0.1411201901311756</v>
       </c>
       <c r="E6">
-        <v>0.09434403206698505</v>
+        <v>0.06205445410374821</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.669942678449956</v>
+        <v>2.752262187487133</v>
       </c>
       <c r="H6">
-        <v>2.084265317124505</v>
+        <v>1.639161018061685</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4559427814169652</v>
+        <v>0.6492444499199621</v>
       </c>
       <c r="L6">
-        <v>0.200451554694709</v>
+        <v>0.1902753606621133</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8972666686598245</v>
+        <v>0.9070513642907656</v>
       </c>
       <c r="C7">
-        <v>0.06699390817516715</v>
+        <v>0.07868343653117904</v>
       </c>
       <c r="D7">
-        <v>0.06578309547759886</v>
+        <v>0.1483459536030978</v>
       </c>
       <c r="E7">
-        <v>0.09463472747956558</v>
+        <v>0.0635937266740072</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.691349377499506</v>
+        <v>2.828975128847674</v>
       </c>
       <c r="H7">
-        <v>2.093198505905349</v>
+        <v>1.673743623967169</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4628729801839881</v>
+        <v>0.6831181934229988</v>
       </c>
       <c r="L7">
-        <v>0.2021127869221999</v>
+        <v>0.1982699703109603</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9324617012824774</v>
+        <v>1.091190901625311</v>
       </c>
       <c r="C8">
-        <v>0.06928787821234295</v>
+        <v>0.08473723959036761</v>
       </c>
       <c r="D8">
-        <v>0.07453718562732092</v>
+        <v>0.1807133375968419</v>
       </c>
       <c r="E8">
-        <v>0.09599819171637236</v>
+        <v>0.07057598048115921</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.787388490515269</v>
+        <v>3.174942338035379</v>
       </c>
       <c r="H8">
-        <v>2.133725196366953</v>
+        <v>1.830305076167718</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4944810165004583</v>
+        <v>0.8351845288096058</v>
       </c>
       <c r="L8">
-        <v>0.2097383191214561</v>
+        <v>0.2343140098270595</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.007427353539441</v>
+        <v>1.468875777837411</v>
       </c>
       <c r="C9">
-        <v>0.07351387577449486</v>
+        <v>0.09668213547000093</v>
       </c>
       <c r="D9">
-        <v>0.09202134559599529</v>
+        <v>0.24648226623124</v>
       </c>
       <c r="E9">
-        <v>0.09896251183224081</v>
+        <v>0.08508451486074975</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.981478650703508</v>
+        <v>3.886933536340564</v>
       </c>
       <c r="H9">
-        <v>2.217211627101619</v>
+        <v>2.154725243326141</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5601776239616925</v>
+        <v>1.145576721676974</v>
       </c>
       <c r="L9">
-        <v>0.2257569478733501</v>
+        <v>0.3084355049417269</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.066158091266431</v>
+        <v>1.760187215262732</v>
       </c>
       <c r="C10">
-        <v>0.07645719414164631</v>
+        <v>0.1056494603042708</v>
       </c>
       <c r="D10">
-        <v>0.1050690870201834</v>
+        <v>0.296806542062356</v>
       </c>
       <c r="E10">
-        <v>0.1013185132157588</v>
+        <v>0.09638458174228504</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.127693844187604</v>
+        <v>4.437715488587969</v>
       </c>
       <c r="H10">
-        <v>2.281039972787795</v>
+        <v>2.407085559889026</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6107392781119074</v>
+        <v>1.384153042541101</v>
       </c>
       <c r="L10">
-        <v>0.2381820158907004</v>
+        <v>0.3657245269696574</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.093676111492044</v>
+        <v>1.896654494039069</v>
       </c>
       <c r="C11">
-        <v>0.07776210814053286</v>
+        <v>0.1098083073998097</v>
       </c>
       <c r="D11">
-        <v>0.1110506846526675</v>
+        <v>0.3202875882875986</v>
       </c>
       <c r="E11">
-        <v>0.1024292319185989</v>
+        <v>0.1017002875770388</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.195020427563463</v>
+        <v>4.696112727638877</v>
       </c>
       <c r="H11">
-        <v>2.310627992625655</v>
+        <v>2.525789281871937</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6342464188481358</v>
+        <v>1.495760481080907</v>
       </c>
       <c r="L11">
-        <v>0.2439786078550128</v>
+        <v>0.3925872706194156</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.104212055211065</v>
+        <v>1.948987527265075</v>
       </c>
       <c r="C12">
-        <v>0.07825143083416464</v>
+        <v>0.1113982352332386</v>
       </c>
       <c r="D12">
-        <v>0.1133225214715452</v>
+        <v>0.3292781370634117</v>
       </c>
       <c r="E12">
-        <v>0.1028554476097128</v>
+        <v>0.1037417710495738</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.22063372076542</v>
+        <v>4.795260275888836</v>
       </c>
       <c r="H12">
-        <v>2.321912267375012</v>
+        <v>2.571381230589282</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6432212420875771</v>
+        <v>1.538540249059565</v>
       </c>
       <c r="L12">
-        <v>0.2461944873331987</v>
+        <v>0.402892237602785</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.101937811413961</v>
+        <v>1.937685989109781</v>
       </c>
       <c r="C13">
-        <v>0.07814625966095434</v>
+        <v>0.1110550830890418</v>
       </c>
       <c r="D13">
-        <v>0.1128329395213541</v>
+        <v>0.3273372243886143</v>
       </c>
       <c r="E13">
-        <v>0.1027634047704993</v>
+        <v>0.1033007744428893</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.21511216250542</v>
+        <v>4.773846421034136</v>
       </c>
       <c r="H13">
-        <v>2.319478433323411</v>
+        <v>2.561532286382601</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.641285092803372</v>
+        <v>1.529302619853922</v>
       </c>
       <c r="L13">
-        <v>0.2457163301240257</v>
+        <v>0.4006666819290245</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.09454059422211</v>
+        <v>1.900946278567801</v>
       </c>
       <c r="C14">
-        <v>0.07780246119965994</v>
+        <v>0.1099387873892468</v>
       </c>
       <c r="D14">
-        <v>0.1112374544410528</v>
+        <v>0.3210251791947485</v>
       </c>
       <c r="E14">
-        <v>0.1024641844479248</v>
+        <v>0.1018676491683301</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.197125272495612</v>
+        <v>4.704242594663185</v>
       </c>
       <c r="H14">
-        <v>2.311554751654057</v>
+        <v>2.529526812098709</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6349833142334376</v>
+        <v>1.499269193206004</v>
       </c>
       <c r="L14">
-        <v>0.2441604915669302</v>
+        <v>0.3934323018077208</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.090024630423926</v>
+        <v>1.878530345406602</v>
       </c>
       <c r="C15">
-        <v>0.07759124915123294</v>
+        <v>0.1092571012597006</v>
       </c>
       <c r="D15">
-        <v>0.1102610540557265</v>
+        <v>0.317172183149296</v>
       </c>
       <c r="E15">
-        <v>0.1022816342712538</v>
+        <v>0.1009936409863208</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.186123212880318</v>
+        <v>4.661782681012596</v>
       </c>
       <c r="H15">
-        <v>2.306711693402178</v>
+        <v>2.510008601442109</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6311328338763929</v>
+        <v>1.480942452124566</v>
       </c>
       <c r="L15">
-        <v>0.2432102112730519</v>
+        <v>0.3890188564573833</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.064375866965662</v>
+        <v>1.751355504981575</v>
       </c>
       <c r="C16">
-        <v>0.0763712365602558</v>
+        <v>0.1053795698760069</v>
       </c>
       <c r="D16">
-        <v>0.10467911238689</v>
+        <v>0.2952850150249162</v>
       </c>
       <c r="E16">
-        <v>0.1012467098212397</v>
+        <v>0.09604099150323009</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.123310358050702</v>
+        <v>4.421000569650857</v>
       </c>
       <c r="H16">
-        <v>2.279117482687354</v>
+        <v>2.399413184787363</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6092132516726849</v>
+        <v>1.376927285795801</v>
       </c>
       <c r="L16">
-        <v>0.2378061064615622</v>
+        <v>0.3639865535461695</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.048846552133199</v>
+        <v>1.674408623823723</v>
       </c>
       <c r="C17">
-        <v>0.07561413679336937</v>
+        <v>0.1030236408934329</v>
       </c>
       <c r="D17">
-        <v>0.101266656929127</v>
+        <v>0.2820182217774772</v>
       </c>
       <c r="E17">
-        <v>0.1006218018160432</v>
+        <v>0.09304984959781493</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.084985766765925</v>
+        <v>4.275412659894045</v>
       </c>
       <c r="H17">
-        <v>2.2623311316475</v>
+        <v>2.332620489943423</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5958962503275131</v>
+        <v>1.313955542215808</v>
       </c>
       <c r="L17">
-        <v>0.2345278924600507</v>
+        <v>0.3488471092535832</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.039989888785612</v>
+        <v>1.630516598811539</v>
       </c>
       <c r="C18">
-        <v>0.07517546695838462</v>
+        <v>0.1016758192928862</v>
       </c>
       <c r="D18">
-        <v>0.09930823701768077</v>
+        <v>0.274441945887574</v>
       </c>
       <c r="E18">
-        <v>0.1002660380387219</v>
+        <v>0.09134569852141894</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.063018877133004</v>
+        <v>4.192401372964156</v>
       </c>
       <c r="H18">
-        <v>2.252728008794463</v>
+        <v>2.294565238091934</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5882843050713973</v>
+        <v>1.278020660363353</v>
       </c>
       <c r="L18">
-        <v>0.2326559342260452</v>
+        <v>0.3402136104494105</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.037004114724112</v>
+        <v>1.615715817054934</v>
       </c>
       <c r="C19">
-        <v>0.07502638806859352</v>
+        <v>0.1012206118062551</v>
       </c>
       <c r="D19">
-        <v>0.09864589093093912</v>
+        <v>0.2718856912076291</v>
       </c>
       <c r="E19">
-        <v>0.1001462120723247</v>
+        <v>0.09077140157257801</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.055594347356788</v>
+        <v>4.164415168937865</v>
       </c>
       <c r="H19">
-        <v>2.249485461458221</v>
+        <v>2.28174028745795</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5857152028726773</v>
+        <v>1.265900530002938</v>
       </c>
       <c r="L19">
-        <v>0.2320244520646781</v>
+        <v>0.3373027218650577</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05049186996618</v>
+        <v>1.68256128751753</v>
       </c>
       <c r="C20">
-        <v>0.07569506265461001</v>
+        <v>0.103273658831057</v>
       </c>
       <c r="D20">
-        <v>0.101629469308179</v>
+        <v>0.2834247632710429</v>
       </c>
       <c r="E20">
-        <v>0.1006879447852285</v>
+        <v>0.09336655437042296</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.089057568046513</v>
+        <v>4.290834325103873</v>
       </c>
       <c r="H20">
-        <v>2.264112687753709</v>
+        <v>2.339692655044814</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5973089345423546</v>
+        <v>1.320629008637127</v>
       </c>
       <c r="L20">
-        <v>0.23487545752225</v>
+        <v>0.3504509188320242</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.096710200296371</v>
+        <v>1.911719069150877</v>
       </c>
       <c r="C21">
-        <v>0.07790357338139842</v>
+        <v>0.1102662304550819</v>
       </c>
       <c r="D21">
-        <v>0.1117059034436068</v>
+        <v>0.3228763776001529</v>
       </c>
       <c r="E21">
-        <v>0.1025519203741148</v>
+        <v>0.1022877897093686</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.202405240135988</v>
+        <v>4.724650240646781</v>
       </c>
       <c r="H21">
-        <v>2.313879955399898</v>
+        <v>2.538909503367563</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6368323103679359</v>
+        <v>1.508076089574672</v>
       </c>
       <c r="L21">
-        <v>0.2446169129675582</v>
+        <v>0.3955534668085647</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.127589712117697</v>
+        <v>2.065358312609703</v>
       </c>
       <c r="C22">
-        <v>0.0793189021037648</v>
+        <v>0.1149261179016605</v>
       </c>
       <c r="D22">
-        <v>0.1183307452702138</v>
+        <v>0.3492439000701211</v>
       </c>
       <c r="E22">
-        <v>0.1038028431162417</v>
+        <v>0.1082865235360231</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.277173949173118</v>
+        <v>5.015834194472859</v>
       </c>
       <c r="H22">
-        <v>2.346871906931256</v>
+        <v>2.672892045883827</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6630898404124821</v>
+        <v>1.63363478405617</v>
       </c>
       <c r="L22">
-        <v>0.2511050016161391</v>
+        <v>0.4258132124265899</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.111047049578701</v>
+        <v>1.982972026932714</v>
       </c>
       <c r="C23">
-        <v>0.07856605834651731</v>
+        <v>0.1124295026566955</v>
       </c>
       <c r="D23">
-        <v>0.1147913108684691</v>
+        <v>0.3351125282420639</v>
       </c>
       <c r="E23">
-        <v>0.103132206703382</v>
+        <v>0.1050682921790305</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.237204954214008</v>
+        <v>4.859661409582088</v>
       </c>
       <c r="H23">
-        <v>2.329220650740353</v>
+        <v>2.601007968895033</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6490365357529129</v>
+        <v>1.566315780581419</v>
       </c>
       <c r="L23">
-        <v>0.2476310450696388</v>
+        <v>0.4095851332718894</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049747799560606</v>
+        <v>1.678874397816088</v>
       </c>
       <c r="C24">
-        <v>0.07565848667958619</v>
+        <v>0.103160605327389</v>
       </c>
       <c r="D24">
-        <v>0.1014654311073144</v>
+        <v>0.2827887081213589</v>
       </c>
       <c r="E24">
-        <v>0.1006580306350351</v>
+        <v>0.09322332412306622</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.08721649987254</v>
+        <v>4.283860056356076</v>
       </c>
       <c r="H24">
-        <v>2.263307098077178</v>
+        <v>2.336494261294519</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5966701224347446</v>
+        <v>1.317611103893427</v>
       </c>
       <c r="L24">
-        <v>0.234718283710734</v>
+        <v>0.3497256186221023</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9865075811472082</v>
+        <v>1.364565595026846</v>
       </c>
       <c r="C25">
-        <v>0.07239932861846654</v>
+        <v>0.09342873461877588</v>
       </c>
       <c r="D25">
-        <v>0.08725654825930462</v>
+        <v>0.2283854362034958</v>
       </c>
       <c r="E25">
-        <v>0.09812937740191074</v>
+        <v>0.08105825094268226</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.928344677287981</v>
+        <v>3.690026142823768</v>
       </c>
       <c r="H25">
-        <v>2.194192109971027</v>
+        <v>2.064767227994366</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5420042845127284</v>
+        <v>1.060001678902523</v>
       </c>
       <c r="L25">
-        <v>0.2213087602360133</v>
+        <v>0.2879440111373128</v>
       </c>
       <c r="M25">
         <v>0</v>
